--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_ESP.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_ESP.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CA$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="268">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -821,6 +821,18 @@
   </si>
   <si>
     <t>ESP</t>
+  </si>
+  <si>
+    <t>4882738784</t>
+  </si>
+  <si>
+    <t>8391105926</t>
+  </si>
+  <si>
+    <t>9826512324</t>
+  </si>
+  <si>
+    <t>3703075487</t>
   </si>
 </sst>
 </file>
@@ -830,7 +842,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -879,6 +891,26 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1291,78 +1323,78 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BA1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD2" sqref="BD2:BD15"/>
+      <selection pane="bottomLeft" activeCell="BA15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="40.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="26.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="28.1640625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="19.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75">
@@ -1750,8 +1782,8 @@
       <c r="AW2" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX2" s="1">
-        <v>214002901789</v>
+      <c r="AX2" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -1966,8 +1998,8 @@
       <c r="AW3" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX3" s="1">
-        <v>214002901789</v>
+      <c r="AX3" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2178,8 +2210,8 @@
       <c r="AW4" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX4" s="1">
-        <v>214002901789</v>
+      <c r="AX4" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2390,8 +2422,8 @@
       <c r="AW5" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX5" s="1">
-        <v>214002901789</v>
+      <c r="AX5" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2602,8 +2634,8 @@
       <c r="AW6" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX6" s="1">
-        <v>214002901789</v>
+      <c r="AX6" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2814,8 +2846,8 @@
       <c r="AW7" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX7" s="1">
-        <v>214002901789</v>
+      <c r="AX7" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>115</v>
@@ -3026,8 +3058,8 @@
       <c r="AW8" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX8" s="1">
-        <v>214002901789</v>
+      <c r="AX8" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3238,8 +3270,8 @@
       <c r="AW9" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX9" s="1">
-        <v>214002901789</v>
+      <c r="AX9" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3450,8 +3482,8 @@
       <c r="AW10" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX10" s="1">
-        <v>214002901789</v>
+      <c r="AX10" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3662,8 +3694,8 @@
       <c r="AW11" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX11" s="1">
-        <v>214002901789</v>
+      <c r="AX11" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3874,8 +3906,8 @@
       <c r="AW12" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX12" s="1">
-        <v>214002901789</v>
+      <c r="AX12" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -4089,8 +4121,8 @@
       <c r="AW13" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX13" s="1">
-        <v>214002901789</v>
+      <c r="AX13" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4301,8 +4333,8 @@
       <c r="AW14" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX14" s="1">
-        <v>214002901789</v>
+      <c r="AX14" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>
@@ -4516,8 +4548,8 @@
       <c r="AW15" s="18">
         <v>1062164740456</v>
       </c>
-      <c r="AX15" s="1">
-        <v>214002901789</v>
+      <c r="AX15" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>130</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_ESP.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_ESP.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="275">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -833,6 +833,27 @@
   </si>
   <si>
     <t>3703075487</t>
+  </si>
+  <si>
+    <t>8093916253</t>
+  </si>
+  <si>
+    <t>0166629518</t>
+  </si>
+  <si>
+    <t>2040773830</t>
+  </si>
+  <si>
+    <t>2261923197</t>
+  </si>
+  <si>
+    <t>7207499260</t>
+  </si>
+  <si>
+    <t>4924798758</t>
+  </si>
+  <si>
+    <t>3471967324</t>
   </si>
 </sst>
 </file>
@@ -842,7 +863,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -891,6 +912,41 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1783,7 +1839,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -1999,7 +2055,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2211,7 +2267,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2423,7 +2479,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2635,7 +2691,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2847,7 +2903,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>115</v>
@@ -3059,7 +3115,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3271,7 +3327,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3483,7 +3539,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3695,7 +3751,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3907,7 +3963,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -4122,7 +4178,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4334,7 +4390,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>
@@ -4549,7 +4605,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>130</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_ESP.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_ESP.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="276">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>3471967324</t>
+  </si>
+  <si>
+    <t>9174367677</t>
   </si>
 </sst>
 </file>
@@ -863,7 +866,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -912,6 +915,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1839,7 +1847,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -2055,7 +2063,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2267,7 +2275,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2479,7 +2487,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2691,7 +2699,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2903,7 +2911,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>115</v>
@@ -3115,7 +3123,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3327,7 +3335,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3539,7 +3547,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3751,7 +3759,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3963,7 +3971,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -4178,7 +4186,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4390,7 +4398,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>
@@ -4605,7 +4613,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>130</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_AssignRule_ESP.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_AssignRule_ESP.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="278">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -857,6 +857,12 @@
   </si>
   <si>
     <t>9174367677</t>
+  </si>
+  <si>
+    <t>0109885360</t>
+  </si>
+  <si>
+    <t>1822495464</t>
   </si>
 </sst>
 </file>
@@ -866,7 +872,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -915,6 +921,16 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1847,7 +1863,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>115</v>
@@ -2063,7 +2079,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>141</v>
@@ -2275,7 +2291,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>141</v>
@@ -2487,7 +2503,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>130</v>
@@ -2699,7 +2715,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>130</v>
@@ -2911,7 +2927,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>115</v>
@@ -3123,7 +3139,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>130</v>
@@ -3335,7 +3351,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>130</v>
@@ -3547,7 +3563,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX10" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY10" s="1" t="s">
         <v>130</v>
@@ -3759,7 +3775,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX11" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY11" s="1" t="s">
         <v>130</v>
@@ -3971,7 +3987,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX12" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY12" s="1" t="s">
         <v>130</v>
@@ -4186,7 +4202,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX13" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY13" s="1" t="s">
         <v>130</v>
@@ -4398,7 +4414,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX14" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY14" s="1" t="s">
         <v>130</v>
@@ -4613,7 +4629,7 @@
         <v>1062164740456</v>
       </c>
       <c r="AX15" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AY15" s="1" t="s">
         <v>130</v>
